--- a/medicine/Pharmacie/Classe_ATC_M03/Classe_ATC_M03.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_M03/Classe_ATC_M03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M03, dénommée « Myorelaxants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M03, dénommée « Myorelaxants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
 </t>
         </is>
       </c>
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M03AA Curares
-M03AA01 Alcuronium
+          <t>M03AA Curares</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M03AA01 Alcuronium
 M03AA02 Tubocurarine
-M03AA04 Diméthyltubocurarine (en)
-M03AB Dérivés de la choline
-M03AB01 Suxaméthonium
-M03AC Autres ammoniums quaternaires
-M03AC01 Pancuronium
+M03AA04 Diméthyltubocurarine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M03A Myorelaxants à action périphérique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M03AB Dérivés de la choline</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M03AB01 Suxaméthonium</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M03A Myorelaxants à action périphérique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M03AC Autres ammoniums quaternaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M03AC01 Pancuronium
 M03AC02 Gallamine
 M03AC03 Vécuronium
 M03AC04 Atracurium
@@ -530,40 +615,79 @@
 M03AC08 Bromure de fazadinium
 M03AC09 Bromure de rocuronium
 M03AC10 Chlorure de mivacurium
-M03AC11 Cisatracurium
-M03AX Autres myorelaxants à action périphérique
-M03AX01 Toxine botulinique</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_M03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+M03AC11 Cisatracurium</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M03A Myorelaxants à action périphérique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M03AX Autres myorelaxants à action périphérique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M03AX01 Toxine botulinique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>M03B Myorelaxants à action centrale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>M03BA Esters de l'acide carbamique
-M03BA01 Phenprobamate
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>M03BA Esters de l'acide carbamique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>M03BA01 Phenprobamate
 M03BA02 Carisoprodol
 M03BA03 Méthocarbamol
 M03BA04 Styramate (en)
@@ -574,19 +698,121 @@
 M03BA71 Phenprobamate, associations avec psycholeptiques
 M03BA72 Carisoprodol, associations avec psycholeptiques
 M03BA73 Méthocarbamol, associations avec psycholeptiques
-QM03BA99 Associations
-M03BB Dérivés oxazolés, thiaziniques et triaziniques
-M03BB02 Chlormézanone (en)
+QM03BA99 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>M03B Myorelaxants à action centrale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M03BB Dérivés oxazolés, thiaziniques et triaziniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>M03BB02 Chlormézanone (en)
 M03BB03 Chlorzoxazone
 M03BB52 Chlormézanone, associations excluant psycholeptiques
 M03BB53 Chlorzoxazone, associations excluant psycholeptiques
 M03BB72 Chlormézanone, associations avec psycholeptiques
-M03BB73 Chlorzoxazone, associations avec psycholeptiques
-M03BC Éthers chimiquement proches des antihistaminiques
-M03BC01 Orphénadrine (citrate)
-M03BC51 Orphénadrine, associations
-M03BX Autres myorelaxants à action centrale
-M03BX01 Baclofène
+M03BB73 Chlorzoxazone, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>M03B Myorelaxants à action centrale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>M03BC Éthers chimiquement proches des antihistaminiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M03BC01 Orphénadrine (citrate)
+M03BC51 Orphénadrine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>M03B Myorelaxants à action centrale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>M03BX Autres myorelaxants à action centrale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>M03BX01 Baclofène
 M03BX02 Tizanidine
 M03BX03 Pridinol (en)
 M03BX04 Tolpérisone (en)
@@ -601,34 +827,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_M03</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>M03C Myorelaxants à action directe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>M03CA Dandrolène et dérivés
-M03CA01 Dantrolène</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>M03CA Dandrolène et dérivés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>M03CA01 Dantrolène</t>
         </is>
       </c>
     </row>
